--- a/Results Genetaor/Batch 2017-19/Sem 1/Sample Student Database.xlsx
+++ b/Results Genetaor/Batch 2017-19/Sem 1/Sample Student Database.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\AutoMBA\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Git\ACMaS\Results Genetaor\Batch 2017-19\Sem 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60A8644-9031-4942-8439-317F7C3080F3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD2B90D-E229-49CE-90FC-F2C20932FEC8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{AFC29160-401D-4461-8898-326E7690AE3C}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="261">
   <si>
     <t>DoB</t>
   </si>
@@ -745,6 +745,72 @@
   </si>
   <si>
     <t>Full Name</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Z</t>
   </si>
 </sst>
 </file>
@@ -1119,9 +1185,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
@@ -1175,9 +1240,8 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="str">
-        <f>CONCATENATE(B2," ",C2," ",D2,)</f>
-        <v>Vasant Govind Patil</v>
+      <c r="E2" t="s">
+        <v>239</v>
       </c>
       <c r="F2" s="1">
         <v>34686</v>
@@ -1208,9 +1272,8 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E66" si="0">CONCATENATE(B3," ",C3," ",D3,)</f>
-        <v>Debjyoti Roy Patil</v>
+      <c r="E3" t="s">
+        <v>115</v>
       </c>
       <c r="F3" s="1">
         <v>34687</v>
@@ -1241,9 +1304,8 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="str">
-        <f t="shared" si="0"/>
-        <v>Kaustav Saha Patil</v>
+      <c r="E4" t="s">
+        <v>240</v>
       </c>
       <c r="F4" s="1">
         <v>34323</v>
@@ -1274,9 +1336,8 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>Debobrata Podder Patil</v>
+      <c r="E5" t="s">
+        <v>241</v>
       </c>
       <c r="F5" s="1">
         <v>34689</v>
@@ -1307,9 +1368,8 @@
       <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>Anurag Mark Topno</v>
+      <c r="E6" t="s">
+        <v>242</v>
       </c>
       <c r="F6" s="1">
         <v>34325</v>
@@ -1340,9 +1400,8 @@
       <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>Tarun Minz Topno</v>
+      <c r="E7" t="s">
+        <v>3</v>
       </c>
       <c r="F7" s="1">
         <v>34325</v>
@@ -1373,9 +1432,8 @@
       <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>Praveen Rao Rokkam</v>
+      <c r="E8" t="s">
+        <v>243</v>
       </c>
       <c r="F8" s="1">
         <v>34618</v>
@@ -1406,9 +1464,8 @@
       <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>Arindam Sharma Rokkam</v>
+      <c r="E9" t="s">
+        <v>244</v>
       </c>
       <c r="F9" s="1">
         <v>34671</v>
@@ -1439,9 +1496,8 @@
       <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>Kaustubh Tripathi Rokkam</v>
+      <c r="E10" t="s">
+        <v>245</v>
       </c>
       <c r="F10" s="1">
         <v>34750</v>
@@ -1472,9 +1528,8 @@
       <c r="D11" t="s">
         <v>32</v>
       </c>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>Nakul Gupta Rokkam</v>
+      <c r="E11" t="s">
+        <v>246</v>
       </c>
       <c r="F11" s="1">
         <v>34598</v>
@@ -1505,9 +1560,8 @@
       <c r="D12" t="s">
         <v>32</v>
       </c>
-      <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>Gaurav Kumar Rokkam</v>
+      <c r="E12" t="s">
+        <v>75</v>
       </c>
       <c r="F12" s="1">
         <v>34864</v>
@@ -1538,9 +1592,8 @@
       <c r="D13" t="s">
         <v>32</v>
       </c>
-      <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>Abhiram Kasina Rokkam</v>
+      <c r="E13" t="s">
+        <v>247</v>
       </c>
       <c r="F13" s="1">
         <v>35051</v>
@@ -1571,9 +1624,8 @@
       <c r="D14" t="s">
         <v>32</v>
       </c>
-      <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>Biplab Sinha Rokkam</v>
+      <c r="E14" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="1">
         <v>34954</v>
@@ -1604,9 +1656,8 @@
       <c r="D15" t="s">
         <v>46</v>
       </c>
-      <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>M Jagan Mohan</v>
+      <c r="E15" t="s">
+        <v>248</v>
       </c>
       <c r="F15" s="1">
         <v>35175</v>
@@ -1637,9 +1688,8 @@
       <c r="D16" t="s">
         <v>46</v>
       </c>
-      <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>Asit Parija Mohan</v>
+      <c r="E16" t="s">
+        <v>249</v>
       </c>
       <c r="F16" s="1">
         <v>35044</v>
@@ -1670,9 +1720,8 @@
       <c r="D17" t="s">
         <v>51</v>
       </c>
-      <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>Shenoy Naresh Keshav</v>
+      <c r="E17" t="s">
+        <v>250</v>
       </c>
       <c r="F17" s="1">
         <v>35157</v>
@@ -1703,9 +1752,8 @@
       <c r="D18" t="s">
         <v>53</v>
       </c>
-      <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>Amit Kumar Suthar</v>
+      <c r="E18" t="s">
+        <v>251</v>
       </c>
       <c r="F18" s="1">
         <v>34686</v>
@@ -1736,9 +1784,8 @@
       <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v>Amar Singh Patel</v>
+      <c r="E19" t="s">
+        <v>252</v>
       </c>
       <c r="F19" s="1">
         <v>34687</v>
@@ -1769,9 +1816,8 @@
       <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v>Rahul Jaimini Patel</v>
+      <c r="E20" t="s">
+        <v>253</v>
       </c>
       <c r="F20" s="1">
         <v>34323</v>
@@ -1802,9 +1848,8 @@
       <c r="D21" t="s">
         <v>6</v>
       </c>
-      <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v>Rohit Rajgarhia Patel</v>
+      <c r="E21" t="s">
+        <v>254</v>
       </c>
       <c r="F21" s="1">
         <v>34689</v>
@@ -1835,9 +1880,8 @@
       <c r="D22" t="s">
         <v>6</v>
       </c>
-      <c r="E22" t="str">
-        <f t="shared" si="0"/>
-        <v>Akshit Sharma Patel</v>
+      <c r="E22" t="s">
+        <v>255</v>
       </c>
       <c r="F22" s="1">
         <v>34325</v>
@@ -1868,9 +1912,8 @@
       <c r="D23" t="s">
         <v>60</v>
       </c>
-      <c r="E23" t="str">
-        <f t="shared" si="0"/>
-        <v>Divya Kumar Kala</v>
+      <c r="E23" t="s">
+        <v>256</v>
       </c>
       <c r="F23" s="1">
         <v>34325</v>
@@ -1901,9 +1944,8 @@
       <c r="D24" t="s">
         <v>60</v>
       </c>
-      <c r="E24" t="str">
-        <f t="shared" si="0"/>
-        <v>Sri Harshad Kala</v>
+      <c r="E24" t="s">
+        <v>258</v>
       </c>
       <c r="F24" s="1">
         <v>34618</v>
@@ -1934,9 +1976,8 @@
       <c r="D25" t="s">
         <v>29</v>
       </c>
-      <c r="E25" t="str">
-        <f t="shared" si="0"/>
-        <v>Micky Mrinal Minz</v>
+      <c r="E25" t="s">
+        <v>259</v>
       </c>
       <c r="F25" s="1">
         <v>34671</v>
@@ -1967,9 +2008,8 @@
       <c r="D26" t="s">
         <v>29</v>
       </c>
-      <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v>Nishant Mundu Minz</v>
+      <c r="E26" t="s">
+        <v>257</v>
       </c>
       <c r="F26" s="1">
         <v>34750</v>
@@ -2000,9 +2040,8 @@
       <c r="D27" t="s">
         <v>29</v>
       </c>
-      <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v>Vinu Rajashekhar Minz</v>
+      <c r="E27" t="s">
+        <v>260</v>
       </c>
       <c r="F27" s="1">
         <v>34598</v>
@@ -2033,9 +2072,8 @@
       <c r="D28" t="s">
         <v>29</v>
       </c>
-      <c r="E28" t="str">
-        <f t="shared" si="0"/>
-        <v>Mainack Mondal Minz</v>
+      <c r="E28">
+        <v>1</v>
       </c>
       <c r="F28" s="1">
         <v>34864</v>
@@ -2066,9 +2104,8 @@
       <c r="D29" t="s">
         <v>29</v>
       </c>
-      <c r="E29" t="str">
-        <f t="shared" si="0"/>
-        <v>Debabrata Dey Minz</v>
+      <c r="E29">
+        <v>2</v>
       </c>
       <c r="F29" s="1">
         <v>35051</v>
@@ -2099,9 +2136,8 @@
       <c r="D30" t="s">
         <v>74</v>
       </c>
-      <c r="E30" t="str">
-        <f t="shared" si="0"/>
-        <v>Vivekananda Najumudheen Bhat</v>
+      <c r="E30">
+        <v>3</v>
       </c>
       <c r="F30" s="1">
         <v>34954</v>
@@ -2132,9 +2168,8 @@
       <c r="D31" t="s">
         <v>77</v>
       </c>
-      <c r="E31" t="str">
-        <f t="shared" si="0"/>
-        <v>Praveen Ankit Sonare</v>
+      <c r="E31">
+        <v>4</v>
       </c>
       <c r="F31" s="1">
         <v>35175</v>
@@ -2165,9 +2200,8 @@
       <c r="D32" t="s">
         <v>77</v>
       </c>
-      <c r="E32" t="str">
-        <f t="shared" si="0"/>
-        <v>Ravi Rattan Sonare</v>
+      <c r="E32">
+        <v>5</v>
       </c>
       <c r="F32" s="1">
         <v>35044</v>
@@ -2198,9 +2232,8 @@
       <c r="D33" t="s">
         <v>77</v>
       </c>
-      <c r="E33" t="str">
-        <f t="shared" si="0"/>
-        <v>Anindya Bhowmik Sonare</v>
+      <c r="E33">
+        <v>6</v>
       </c>
       <c r="F33" s="1">
         <v>35157</v>
@@ -2231,9 +2264,8 @@
       <c r="D34" t="s">
         <v>77</v>
       </c>
-      <c r="E34" t="str">
-        <f t="shared" si="0"/>
-        <v>Bishal Lama Sonare</v>
+      <c r="E34">
+        <v>7</v>
       </c>
       <c r="F34" s="1">
         <v>34686</v>
@@ -2264,9 +2296,8 @@
       <c r="D35" t="s">
         <v>84</v>
       </c>
-      <c r="E35" t="str">
-        <f t="shared" si="0"/>
-        <v>Arun Kumar Saragadam</v>
+      <c r="E35">
+        <v>8</v>
       </c>
       <c r="F35" s="1">
         <v>34687</v>
@@ -2297,9 +2328,8 @@
       <c r="D36" t="s">
         <v>70</v>
       </c>
-      <c r="E36" t="str">
-        <f t="shared" si="0"/>
-        <v>Arit Kumar Mondal</v>
+      <c r="E36">
+        <v>9</v>
       </c>
       <c r="F36" s="1">
         <v>34323</v>
@@ -2330,9 +2360,8 @@
       <c r="D37" t="s">
         <v>70</v>
       </c>
-      <c r="E37" t="str">
-        <f t="shared" si="0"/>
-        <v>Akash Rao Mondal</v>
+      <c r="E37">
+        <v>10</v>
       </c>
       <c r="F37" s="1">
         <v>34689</v>
@@ -2363,9 +2392,8 @@
       <c r="D38" t="s">
         <v>70</v>
       </c>
-      <c r="E38" t="str">
-        <f t="shared" si="0"/>
-        <v>Marut Agarwal Mondal</v>
+      <c r="E38">
+        <v>11</v>
       </c>
       <c r="F38" s="1">
         <v>34325</v>
@@ -2396,9 +2424,8 @@
       <c r="D39" t="s">
         <v>55</v>
       </c>
-      <c r="E39" t="str">
-        <f t="shared" si="0"/>
-        <v>Abhishek Pratap Singh</v>
+      <c r="E39">
+        <v>12</v>
       </c>
       <c r="F39" s="1">
         <v>34325</v>
@@ -2429,9 +2456,8 @@
       <c r="D40" t="s">
         <v>55</v>
       </c>
-      <c r="E40" t="str">
-        <f t="shared" si="0"/>
-        <v>Sushant Kumar Singh</v>
+      <c r="E40">
+        <v>13</v>
       </c>
       <c r="F40" s="1">
         <v>34618</v>
@@ -2462,9 +2488,8 @@
       <c r="D41" t="s">
         <v>55</v>
       </c>
-      <c r="E41" t="str">
-        <f t="shared" si="0"/>
-        <v>Arpit Mishra Singh</v>
+      <c r="E41">
+        <v>14</v>
       </c>
       <c r="F41" s="1">
         <v>34671</v>
@@ -2495,9 +2520,8 @@
       <c r="D42" t="s">
         <v>55</v>
       </c>
-      <c r="E42" t="str">
-        <f t="shared" si="0"/>
-        <v>Abhinav Gupta Singh</v>
+      <c r="E42">
+        <v>15</v>
       </c>
       <c r="F42" s="1">
         <v>34750</v>
@@ -2528,9 +2552,8 @@
       <c r="D43" t="s">
         <v>96</v>
       </c>
-      <c r="E43" t="str">
-        <f t="shared" si="0"/>
-        <v>Togarrati Venkata Nagesh</v>
+      <c r="E43">
+        <v>16</v>
       </c>
       <c r="F43" s="1">
         <v>34598</v>
@@ -2561,9 +2584,8 @@
       <c r="D44" t="s">
         <v>96</v>
       </c>
-      <c r="E44" t="str">
-        <f t="shared" si="0"/>
-        <v>Pam Revanth Nagesh</v>
+      <c r="E44">
+        <v>17</v>
       </c>
       <c r="F44" s="1">
         <v>34864</v>
@@ -2594,9 +2616,8 @@
       <c r="D45" t="s">
         <v>96</v>
       </c>
-      <c r="E45" t="str">
-        <f t="shared" si="0"/>
-        <v>Gourav Khaneja Nagesh</v>
+      <c r="E45">
+        <v>18</v>
       </c>
       <c r="F45" s="1">
         <v>35051</v>
@@ -2627,9 +2648,8 @@
       <c r="D46" t="s">
         <v>96</v>
       </c>
-      <c r="E46" t="str">
-        <f t="shared" si="0"/>
-        <v>Mayank Jaiswal Nagesh</v>
+      <c r="E46">
+        <v>19</v>
       </c>
       <c r="F46" s="1">
         <v>34954</v>
@@ -2660,9 +2680,8 @@
       <c r="D47" t="s">
         <v>96</v>
       </c>
-      <c r="E47" t="str">
-        <f t="shared" si="0"/>
-        <v>Amit Shanker Nagesh</v>
+      <c r="E47">
+        <v>20</v>
       </c>
       <c r="F47" s="1">
         <v>35175</v>
@@ -2693,9 +2712,8 @@
       <c r="D48" t="s">
         <v>96</v>
       </c>
-      <c r="E48" t="str">
-        <f t="shared" si="0"/>
-        <v>Abhinav Anand Nagesh</v>
+      <c r="E48">
+        <v>21</v>
       </c>
       <c r="F48" s="1">
         <v>35044</v>
@@ -2726,9 +2744,8 @@
       <c r="D49" t="s">
         <v>105</v>
       </c>
-      <c r="E49" t="str">
-        <f t="shared" si="0"/>
-        <v>Varun K Choudhary</v>
+      <c r="E49">
+        <v>22</v>
       </c>
       <c r="F49" s="1">
         <v>35157</v>
@@ -2759,9 +2776,8 @@
       <c r="D50" t="s">
         <v>105</v>
       </c>
-      <c r="E50" t="str">
-        <f t="shared" si="0"/>
-        <v>Diptesh Chatterjee Choudhary</v>
+      <c r="E50">
+        <v>23</v>
       </c>
       <c r="F50" s="1">
         <v>34686</v>
@@ -2792,9 +2808,8 @@
       <c r="D51" t="s">
         <v>55</v>
       </c>
-      <c r="E51" t="str">
-        <f t="shared" si="0"/>
-        <v>Anuj Kumar Singh</v>
+      <c r="E51">
+        <v>24</v>
       </c>
       <c r="F51" s="1">
         <v>34687</v>
@@ -2825,9 +2840,8 @@
       <c r="D52" t="s">
         <v>55</v>
       </c>
-      <c r="E52" t="str">
-        <f t="shared" si="0"/>
-        <v>Dilpreet Singh Singh</v>
+      <c r="E52">
+        <v>25</v>
       </c>
       <c r="F52" s="1">
         <v>34323</v>
@@ -2858,9 +2872,8 @@
       <c r="D53" t="s">
         <v>55</v>
       </c>
-      <c r="E53" t="str">
-        <f t="shared" si="0"/>
-        <v>Amit Sharma Singh</v>
+      <c r="E53">
+        <v>26</v>
       </c>
       <c r="F53" s="1">
         <v>34689</v>
@@ -2891,9 +2904,8 @@
       <c r="D54" t="s">
         <v>40</v>
       </c>
-      <c r="E54" t="str">
-        <f t="shared" si="0"/>
-        <v>Kammara Yashwanth Kumar</v>
+      <c r="E54">
+        <v>27</v>
       </c>
       <c r="F54" s="1">
         <v>34325</v>
@@ -2924,9 +2936,8 @@
       <c r="D55" t="s">
         <v>113</v>
       </c>
-      <c r="E55" t="str">
-        <f t="shared" si="0"/>
-        <v>Mani Kumar Nallani</v>
+      <c r="E55">
+        <v>28</v>
       </c>
       <c r="F55" s="1">
         <v>34325</v>
@@ -2957,9 +2968,8 @@
       <c r="D56" t="s">
         <v>113</v>
       </c>
-      <c r="E56" t="str">
-        <f t="shared" si="0"/>
-        <v>Rahul Saxena Nallani</v>
+      <c r="E56">
+        <v>29</v>
       </c>
       <c r="F56" s="1">
         <v>34618</v>
@@ -2990,9 +3000,8 @@
       <c r="D57" t="s">
         <v>113</v>
       </c>
-      <c r="E57" t="str">
-        <f t="shared" si="0"/>
-        <v>Sahil Goyal Nallani</v>
+      <c r="E57">
+        <v>30</v>
       </c>
       <c r="F57" s="1">
         <v>34671</v>
@@ -3023,9 +3032,8 @@
       <c r="D58" t="s">
         <v>113</v>
       </c>
-      <c r="E58" t="str">
-        <f t="shared" si="0"/>
-        <v>Dodda Raviteja Nallani</v>
+      <c r="E58">
+        <v>31</v>
       </c>
       <c r="F58" s="1">
         <v>34750</v>
@@ -3056,9 +3064,8 @@
       <c r="D59" t="s">
         <v>113</v>
       </c>
-      <c r="E59" t="str">
-        <f t="shared" si="0"/>
-        <v>Anirudha Patro Nallani</v>
+      <c r="E59">
+        <v>32</v>
       </c>
       <c r="F59" s="1">
         <v>34598</v>
@@ -3089,9 +3096,8 @@
       <c r="D60" t="s">
         <v>124</v>
       </c>
-      <c r="E60" t="str">
-        <f t="shared" si="0"/>
-        <v>Mullapudi Pavan Nithin</v>
+      <c r="E60">
+        <v>33</v>
       </c>
       <c r="F60" s="1">
         <v>34864</v>
@@ -3122,9 +3128,8 @@
       <c r="D61" t="s">
         <v>124</v>
       </c>
-      <c r="E61" t="str">
-        <f t="shared" si="0"/>
-        <v>Sameer Hembrom Nithin</v>
+      <c r="E61">
+        <v>34</v>
       </c>
       <c r="F61" s="1">
         <v>35051</v>
@@ -3155,9 +3160,8 @@
       <c r="D62" t="s">
         <v>124</v>
       </c>
-      <c r="E62" t="str">
-        <f t="shared" si="0"/>
-        <v>Ayan Mazumdar Nithin</v>
+      <c r="E62">
+        <v>35</v>
       </c>
       <c r="F62" s="1">
         <v>34954</v>
@@ -3188,9 +3192,8 @@
       <c r="D63" t="s">
         <v>130</v>
       </c>
-      <c r="E63" t="str">
-        <f t="shared" si="0"/>
-        <v>Kiran Kumar Bollam</v>
+      <c r="E63">
+        <v>36</v>
       </c>
       <c r="F63" s="1">
         <v>35175</v>
@@ -3221,9 +3224,8 @@
       <c r="D64" t="s">
         <v>130</v>
       </c>
-      <c r="E64" t="str">
-        <f t="shared" si="0"/>
-        <v>Biswajyoti Das Bollam</v>
+      <c r="E64">
+        <v>37</v>
       </c>
       <c r="F64" s="1">
         <v>35044</v>
@@ -3254,9 +3256,8 @@
       <c r="D65" t="s">
         <v>135</v>
       </c>
-      <c r="E65" t="str">
-        <f t="shared" si="0"/>
-        <v>Arka Aloke Bhattacharya</v>
+      <c r="E65">
+        <v>38</v>
       </c>
       <c r="F65" s="1">
         <v>35157</v>
@@ -3287,9 +3288,8 @@
       <c r="D66" t="s">
         <v>135</v>
       </c>
-      <c r="E66" t="str">
-        <f t="shared" si="0"/>
-        <v>Abhijeet Kumar Bhattacharya</v>
+      <c r="E66">
+        <v>39</v>
       </c>
       <c r="F66" s="1">
         <v>34686</v>
@@ -3320,9 +3320,8 @@
       <c r="D67" t="s">
         <v>138</v>
       </c>
-      <c r="E67" t="str">
-        <f t="shared" ref="E67:E130" si="1">CONCATENATE(B67," ",C67," ",D67,)</f>
-        <v>Alok Kumar Yadav</v>
+      <c r="E67">
+        <v>40</v>
       </c>
       <c r="F67" s="1">
         <v>34687</v>
@@ -3353,9 +3352,8 @@
       <c r="D68" t="s">
         <v>138</v>
       </c>
-      <c r="E68" t="str">
-        <f t="shared" si="1"/>
-        <v>Anshul Rai Yadav</v>
+      <c r="E68">
+        <v>41</v>
       </c>
       <c r="F68" s="1">
         <v>34323</v>
@@ -3386,9 +3384,8 @@
       <c r="D69" t="s">
         <v>138</v>
       </c>
-      <c r="E69" t="str">
-        <f t="shared" si="1"/>
-        <v>Mohit Singh Yadav</v>
+      <c r="E69">
+        <v>42</v>
       </c>
       <c r="F69" s="1">
         <v>34689</v>
@@ -3419,9 +3416,8 @@
       <c r="D70" t="s">
         <v>138</v>
       </c>
-      <c r="E70" t="str">
-        <f t="shared" si="1"/>
-        <v>Biswajeet Mistry Yadav</v>
+      <c r="E70">
+        <v>43</v>
       </c>
       <c r="F70" s="1">
         <v>34325</v>
@@ -3452,9 +3448,8 @@
       <c r="D71" t="s">
         <v>138</v>
       </c>
-      <c r="E71" t="str">
-        <f t="shared" si="1"/>
-        <v>Badal Murmu Yadav</v>
+      <c r="E71">
+        <v>44</v>
       </c>
       <c r="F71" s="1">
         <v>34325</v>
@@ -3485,9 +3480,8 @@
       <c r="D72" t="s">
         <v>147</v>
       </c>
-      <c r="E72" t="str">
-        <f t="shared" si="1"/>
-        <v>Chinthala Sathish Chandra</v>
+      <c r="E72">
+        <v>45</v>
       </c>
       <c r="F72" s="1">
         <v>34618</v>
@@ -3518,9 +3512,8 @@
       <c r="D73" t="s">
         <v>147</v>
       </c>
-      <c r="E73" t="str">
-        <f t="shared" si="1"/>
-        <v>Vadde Sanjeev Chandra</v>
+      <c r="E73">
+        <v>46</v>
       </c>
       <c r="F73" s="1">
         <v>34671</v>
@@ -3551,9 +3544,8 @@
       <c r="D74" t="s">
         <v>151</v>
       </c>
-      <c r="E74" t="str">
-        <f t="shared" si="1"/>
-        <v>B Rajender Naik</v>
+      <c r="E74">
+        <v>47</v>
       </c>
       <c r="F74" s="1">
         <v>34750</v>
@@ -3584,9 +3576,8 @@
       <c r="D75" t="s">
         <v>151</v>
       </c>
-      <c r="E75" t="str">
-        <f t="shared" si="1"/>
-        <v>Gaurav Mehta Naik</v>
+      <c r="E75">
+        <v>48</v>
       </c>
       <c r="F75" s="1">
         <v>34598</v>
@@ -3617,9 +3608,8 @@
       <c r="D76" t="s">
         <v>154</v>
       </c>
-      <c r="E76" t="str">
-        <f t="shared" si="1"/>
-        <v>Naveen Kumar Molleti</v>
+      <c r="E76">
+        <v>49</v>
       </c>
       <c r="F76" s="1">
         <v>34864</v>
@@ -3650,9 +3640,8 @@
       <c r="D77" t="s">
         <v>156</v>
       </c>
-      <c r="E77" t="str">
-        <f t="shared" si="1"/>
-        <v>Rahul Kumar Srivastava</v>
+      <c r="E77">
+        <v>50</v>
       </c>
       <c r="F77" s="1">
         <v>35051</v>
@@ -3683,9 +3672,8 @@
       <c r="D78" t="s">
         <v>117</v>
       </c>
-      <c r="E78" t="str">
-        <f t="shared" si="1"/>
-        <v>Saurabh Kumar Goyal</v>
+      <c r="E78">
+        <v>51</v>
       </c>
       <c r="F78" s="1">
         <v>34954</v>
@@ -3716,9 +3704,8 @@
       <c r="D79" t="s">
         <v>159</v>
       </c>
-      <c r="E79" t="str">
-        <f t="shared" si="1"/>
-        <v>Narendra Kumar Tangella</v>
+      <c r="E79">
+        <v>52</v>
       </c>
       <c r="F79" s="1">
         <v>35175</v>
@@ -3749,9 +3736,8 @@
       <c r="D80" t="s">
         <v>40</v>
       </c>
-      <c r="E80" t="str">
-        <f t="shared" si="1"/>
-        <v>Nandam Karthik Kumar</v>
+      <c r="E80">
+        <v>53</v>
       </c>
       <c r="F80" s="1">
         <v>35044</v>
@@ -3782,9 +3768,8 @@
       <c r="D81" t="s">
         <v>38</v>
       </c>
-      <c r="E81" t="str">
-        <f t="shared" si="1"/>
-        <v>Atul Kumar Gupta</v>
+      <c r="E81">
+        <v>54</v>
       </c>
       <c r="F81" s="1">
         <v>35157</v>
@@ -3815,9 +3800,8 @@
       <c r="D82" t="s">
         <v>88</v>
       </c>
-      <c r="E82" t="str">
-        <f t="shared" si="1"/>
-        <v>Harsh Vardhan Agarwal</v>
+      <c r="E82">
+        <v>55</v>
       </c>
       <c r="F82" s="1">
         <v>34686</v>
@@ -3848,9 +3832,8 @@
       <c r="D83" t="s">
         <v>88</v>
       </c>
-      <c r="E83" t="str">
-        <f t="shared" si="1"/>
-        <v>Rayman Preet Agarwal</v>
+      <c r="E83">
+        <v>56</v>
       </c>
       <c r="F83" s="1">
         <v>34687</v>
@@ -3881,9 +3864,8 @@
       <c r="D84" t="s">
         <v>88</v>
       </c>
-      <c r="E84" t="str">
-        <f t="shared" si="1"/>
-        <v>Aniket Nayak Agarwal</v>
+      <c r="E84">
+        <v>57</v>
       </c>
       <c r="F84" s="1">
         <v>34323</v>
@@ -3914,9 +3896,8 @@
       <c r="D85" t="s">
         <v>88</v>
       </c>
-      <c r="E85" t="str">
-        <f t="shared" si="1"/>
-        <v>Siddharth Raghuvansi Agarwal</v>
+      <c r="E85">
+        <v>58</v>
       </c>
       <c r="F85" s="1">
         <v>34689</v>
@@ -3947,9 +3928,8 @@
       <c r="D86" t="s">
         <v>88</v>
       </c>
-      <c r="E86" t="str">
-        <f t="shared" si="1"/>
-        <v>Sayantan Ghosh Agarwal</v>
+      <c r="E86">
+        <v>59</v>
       </c>
       <c r="F86" s="1">
         <v>34325</v>
@@ -3980,9 +3960,8 @@
       <c r="D87" t="s">
         <v>88</v>
       </c>
-      <c r="E87" t="str">
-        <f t="shared" si="1"/>
-        <v>Aurosish Mishra Agarwal</v>
+      <c r="E87">
+        <v>60</v>
       </c>
       <c r="F87" s="1">
         <v>34325</v>
@@ -4013,9 +3992,8 @@
       <c r="D88" t="s">
         <v>88</v>
       </c>
-      <c r="E88" t="str">
-        <f t="shared" si="1"/>
-        <v>Ashish Jhunjhunwala Agarwal</v>
+      <c r="E88">
+        <v>61</v>
       </c>
       <c r="F88" s="1">
         <v>34618</v>
@@ -4046,9 +4024,8 @@
       <c r="D89" t="s">
         <v>88</v>
       </c>
-      <c r="E89" t="str">
-        <f t="shared" si="1"/>
-        <v>Sujan Kundu Agarwal</v>
+      <c r="E89">
+        <v>62</v>
       </c>
       <c r="F89" s="1">
         <v>34671</v>
@@ -4079,9 +4056,8 @@
       <c r="D90" t="s">
         <v>88</v>
       </c>
-      <c r="E90" t="str">
-        <f t="shared" si="1"/>
-        <v>Bivas Mitra Agarwal</v>
+      <c r="E90">
+        <v>63</v>
       </c>
       <c r="F90" s="1">
         <v>34750</v>
@@ -4112,9 +4088,8 @@
       <c r="D91" t="s">
         <v>22</v>
       </c>
-      <c r="E91" t="str">
-        <f t="shared" si="1"/>
-        <v>Sujan Kumar Saha</v>
+      <c r="E91">
+        <v>64</v>
       </c>
       <c r="F91" s="1">
         <v>34598</v>
@@ -4145,9 +4120,8 @@
       <c r="D92" t="s">
         <v>181</v>
       </c>
-      <c r="E92" t="str">
-        <f t="shared" si="1"/>
-        <v>Plaban Kumar Bhowmick</v>
+      <c r="E92">
+        <v>65</v>
       </c>
       <c r="F92" s="1">
         <v>34864</v>
@@ -4178,9 +4152,8 @@
       <c r="D93" t="s">
         <v>183</v>
       </c>
-      <c r="E93" t="str">
-        <f t="shared" si="1"/>
-        <v>Arnab Kumar Sarkar</v>
+      <c r="E93">
+        <v>66</v>
       </c>
       <c r="F93" s="1">
         <v>35051</v>
@@ -4211,9 +4184,8 @@
       <c r="D94" t="s">
         <v>185</v>
       </c>
-      <c r="E94" t="str">
-        <f t="shared" si="1"/>
-        <v>Alimpan Barua Boro</v>
+      <c r="E94">
+        <v>67</v>
       </c>
       <c r="F94" s="1">
         <v>34954</v>
@@ -4244,9 +4216,8 @@
       <c r="D95" t="s">
         <v>55</v>
       </c>
-      <c r="E95" t="str">
-        <f t="shared" si="1"/>
-        <v>Keshav Prawasi Singh</v>
+      <c r="E95">
+        <v>68</v>
       </c>
       <c r="F95" s="1">
         <v>35175</v>
@@ -4277,9 +4248,8 @@
       <c r="D96" t="s">
         <v>55</v>
       </c>
-      <c r="E96" t="str">
-        <f t="shared" si="1"/>
-        <v>Neetesh Gupta Singh</v>
+      <c r="E96">
+        <v>69</v>
       </c>
       <c r="F96" s="1">
         <v>35044</v>
@@ -4310,9 +4280,8 @@
       <c r="D97" t="s">
         <v>55</v>
       </c>
-      <c r="E97" t="str">
-        <f t="shared" si="1"/>
-        <v>Naveen Kumar Singh</v>
+      <c r="E97">
+        <v>70</v>
       </c>
       <c r="F97" s="1">
         <v>35157</v>
@@ -4343,9 +4312,8 @@
       <c r="D98" t="s">
         <v>55</v>
       </c>
-      <c r="E98" t="str">
-        <f t="shared" si="1"/>
-        <v>Sumit Sinha Singh</v>
+      <c r="E98">
+        <v>71</v>
       </c>
       <c r="F98" s="1">
         <v>34686</v>
@@ -4376,9 +4344,8 @@
       <c r="D99" t="s">
         <v>55</v>
       </c>
-      <c r="E99" t="str">
-        <f t="shared" si="1"/>
-        <v>Korlam Gautam Singh</v>
+      <c r="E99">
+        <v>72</v>
       </c>
       <c r="F99" s="1">
         <v>34687</v>
@@ -4409,9 +4376,8 @@
       <c r="D100" t="s">
         <v>55</v>
       </c>
-      <c r="E100" t="str">
-        <f t="shared" si="1"/>
-        <v>Dhoble Sumit Singh</v>
+      <c r="E100">
+        <v>73</v>
       </c>
       <c r="F100" s="1">
         <v>34323</v>
@@ -4442,9 +4408,8 @@
       <c r="D101" t="s">
         <v>194</v>
       </c>
-      <c r="E101" t="str">
-        <f t="shared" si="1"/>
-        <v>Nandish Tella Naidu</v>
+      <c r="E101">
+        <v>74</v>
       </c>
       <c r="F101" s="1">
         <v>34689</v>
@@ -4475,9 +4440,8 @@
       <c r="D102" t="s">
         <v>197</v>
       </c>
-      <c r="E102" t="str">
-        <f t="shared" si="1"/>
-        <v>Gautam Kumar Reddy</v>
+      <c r="E102">
+        <v>75</v>
       </c>
       <c r="F102" s="1">
         <v>34325</v>
@@ -4508,9 +4472,8 @@
       <c r="D103" t="s">
         <v>34</v>
       </c>
-      <c r="E103" t="str">
-        <f t="shared" si="1"/>
-        <v>Ramdutt Kishav Sharma</v>
+      <c r="E103">
+        <v>76</v>
       </c>
       <c r="F103" s="1">
         <v>34325</v>
@@ -4541,9 +4504,8 @@
       <c r="D104" t="s">
         <v>88</v>
       </c>
-      <c r="E104" t="str">
-        <f t="shared" si="1"/>
-        <v>Pratik Kishav Agarwal</v>
+      <c r="E104">
+        <v>77</v>
       </c>
       <c r="F104" s="1">
         <v>34618</v>
@@ -4574,9 +4536,8 @@
       <c r="D105" t="s">
         <v>88</v>
       </c>
-      <c r="E105" t="str">
-        <f t="shared" si="1"/>
-        <v>Rishav Kishav Agarwal</v>
+      <c r="E105">
+        <v>78</v>
       </c>
       <c r="F105" s="1">
         <v>34671</v>
@@ -4607,9 +4568,8 @@
       <c r="D106" t="s">
         <v>40</v>
       </c>
-      <c r="E106" t="str">
-        <f t="shared" si="1"/>
-        <v>Rakesh Prudhvi Kumar</v>
+      <c r="E106">
+        <v>79</v>
       </c>
       <c r="F106" s="1">
         <v>34750</v>
@@ -4640,9 +4600,8 @@
       <c r="D107" t="s">
         <v>40</v>
       </c>
-      <c r="E107" t="str">
-        <f t="shared" si="1"/>
-        <v>Sayak Mitra Kumar</v>
+      <c r="E107">
+        <v>80</v>
       </c>
       <c r="F107" s="1">
         <v>34598</v>
@@ -4673,9 +4632,8 @@
       <c r="D108" t="s">
         <v>88</v>
       </c>
-      <c r="E108" t="str">
-        <f t="shared" si="1"/>
-        <v>Achin Gautam Agarwal</v>
+      <c r="E108">
+        <v>81</v>
       </c>
       <c r="F108" s="1">
         <v>34864</v>
@@ -4706,9 +4664,8 @@
       <c r="D109" t="s">
         <v>208</v>
       </c>
-      <c r="E109" t="str">
-        <f t="shared" si="1"/>
-        <v>Avishek Gautam Banerjee</v>
+      <c r="E109">
+        <v>82</v>
       </c>
       <c r="F109" s="1">
         <v>35051</v>
@@ -4739,9 +4696,8 @@
       <c r="D110" t="s">
         <v>210</v>
       </c>
-      <c r="E110" t="str">
-        <f t="shared" si="1"/>
-        <v>Vighnesh Gautam Avadhani</v>
+      <c r="E110">
+        <v>83</v>
       </c>
       <c r="F110" s="1">
         <v>34954</v>
@@ -4772,9 +4728,8 @@
       <c r="D111" t="s">
         <v>211</v>
       </c>
-      <c r="E111" t="str">
-        <f t="shared" si="1"/>
-        <v>Abhinav Gautam Chandel</v>
+      <c r="E111">
+        <v>84</v>
       </c>
       <c r="F111" s="1">
         <v>35175</v>
@@ -4805,9 +4760,8 @@
       <c r="D112" t="s">
         <v>132</v>
       </c>
-      <c r="E112" t="str">
-        <f t="shared" si="1"/>
-        <v>Arvind Gautam Das</v>
+      <c r="E112">
+        <v>85</v>
       </c>
       <c r="F112" s="1">
         <v>35044</v>
@@ -4838,9 +4792,8 @@
       <c r="D113" t="s">
         <v>132</v>
       </c>
-      <c r="E113" t="str">
-        <f t="shared" si="1"/>
-        <v>Sunita Suman Das</v>
+      <c r="E113">
+        <v>86</v>
       </c>
       <c r="F113" s="1">
         <v>35157</v>
@@ -4871,9 +4824,8 @@
       <c r="D114" t="s">
         <v>132</v>
       </c>
-      <c r="E114" t="str">
-        <f t="shared" si="1"/>
-        <v>Monotosh Suman Das</v>
+      <c r="E114">
+        <v>87</v>
       </c>
       <c r="F114" s="1">
         <v>34686</v>
@@ -4904,9 +4856,8 @@
       <c r="D115" t="s">
         <v>88</v>
       </c>
-      <c r="E115" t="str">
-        <f t="shared" si="1"/>
-        <v>Sanket Suman Agarwal</v>
+      <c r="E115">
+        <v>88</v>
       </c>
       <c r="F115" s="1">
         <v>34687</v>
@@ -4937,9 +4888,8 @@
       <c r="D116" t="s">
         <v>216</v>
       </c>
-      <c r="E116" t="str">
-        <f t="shared" si="1"/>
-        <v>Arun Dobriyal Walia</v>
+      <c r="E116">
+        <v>89</v>
       </c>
       <c r="F116" s="1">
         <v>34323</v>
@@ -4970,9 +4920,8 @@
       <c r="D117" t="s">
         <v>92</v>
       </c>
-      <c r="E117" t="str">
-        <f t="shared" si="1"/>
-        <v>Rishav Kishav Mishra</v>
+      <c r="E117">
+        <v>90</v>
       </c>
       <c r="F117" s="1">
         <v>34689</v>
@@ -5003,9 +4952,8 @@
       <c r="D118" t="s">
         <v>105</v>
       </c>
-      <c r="E118" t="str">
-        <f t="shared" si="1"/>
-        <v>Aruni Kishav Choudhary</v>
+      <c r="E118">
+        <v>91</v>
       </c>
       <c r="F118" s="1">
         <v>34325</v>
@@ -5036,9 +4984,8 @@
       <c r="D119" t="s">
         <v>200</v>
       </c>
-      <c r="E119" t="str">
-        <f t="shared" si="1"/>
-        <v>Gyan Baboo Jain</v>
+      <c r="E119">
+        <v>92</v>
       </c>
       <c r="F119" s="1">
         <v>34325</v>
@@ -5069,9 +5016,8 @@
       <c r="D120" t="s">
         <v>200</v>
       </c>
-      <c r="E120" t="str">
-        <f t="shared" si="1"/>
-        <v>Rohit Romesh Jain</v>
+      <c r="E120">
+        <v>93</v>
       </c>
       <c r="F120" s="1">
         <v>34618</v>
@@ -5102,9 +5048,8 @@
       <c r="D121" t="s">
         <v>200</v>
       </c>
-      <c r="E121" t="str">
-        <f t="shared" si="1"/>
-        <v>Anshul Gupta Jain</v>
+      <c r="E121">
+        <v>94</v>
       </c>
       <c r="F121" s="1">
         <v>34671</v>
@@ -5135,9 +5080,8 @@
       <c r="D122" t="s">
         <v>200</v>
       </c>
-      <c r="E122" t="str">
-        <f t="shared" si="1"/>
-        <v>Yatendra Dalal Jain</v>
+      <c r="E122">
+        <v>95</v>
       </c>
       <c r="F122" s="1">
         <v>34750</v>
@@ -5168,9 +5112,8 @@
       <c r="D123" t="s">
         <v>200</v>
       </c>
-      <c r="E123" t="str">
-        <f t="shared" si="1"/>
-        <v>Ravi Shankar Jain</v>
+      <c r="E123">
+        <v>96</v>
       </c>
       <c r="F123" s="1">
         <v>34598</v>
@@ -5201,9 +5144,8 @@
       <c r="D124" t="s">
         <v>55</v>
       </c>
-      <c r="E124" t="str">
-        <f t="shared" si="1"/>
-        <v>Prav Chheda Singh</v>
+      <c r="E124">
+        <v>97</v>
       </c>
       <c r="F124" s="1">
         <v>34864</v>
@@ -5234,9 +5176,8 @@
       <c r="D125" t="s">
         <v>55</v>
       </c>
-      <c r="E125" t="str">
-        <f t="shared" si="1"/>
-        <v>Anshuman Tripathi Singh</v>
+      <c r="E125">
+        <v>98</v>
       </c>
       <c r="F125" s="1">
         <v>35051</v>
@@ -5267,9 +5208,8 @@
       <c r="D126" t="s">
         <v>55</v>
       </c>
-      <c r="E126" t="str">
-        <f t="shared" si="1"/>
-        <v>Kripasindhu Sarkar Singh</v>
+      <c r="E126">
+        <v>99</v>
       </c>
       <c r="F126" s="1">
         <v>34954</v>
@@ -5300,9 +5240,8 @@
       <c r="D127" t="s">
         <v>55</v>
       </c>
-      <c r="E127" t="str">
-        <f t="shared" si="1"/>
-        <v>Gaurab Basu Singh</v>
+      <c r="E127">
+        <v>100</v>
       </c>
       <c r="F127" s="1">
         <v>35175</v>
@@ -5333,9 +5272,8 @@
       <c r="D128" t="s">
         <v>55</v>
       </c>
-      <c r="E128" t="str">
-        <f t="shared" si="1"/>
-        <v>Naveen Kumar Singh</v>
+      <c r="E128">
+        <v>101</v>
       </c>
       <c r="F128" s="1">
         <v>35044</v>
@@ -5366,9 +5304,8 @@
       <c r="D129" t="s">
         <v>34</v>
       </c>
-      <c r="E129" t="str">
-        <f t="shared" si="1"/>
-        <v>Ashis Kumar Sharma</v>
+      <c r="E129">
+        <v>102</v>
       </c>
       <c r="F129" s="1">
         <v>35157</v>
@@ -5399,9 +5336,8 @@
       <c r="D130" t="s">
         <v>138</v>
       </c>
-      <c r="E130" t="str">
-        <f t="shared" si="1"/>
-        <v>Aniket Jha Yadav</v>
+      <c r="E130">
+        <v>103</v>
       </c>
       <c r="F130" s="1">
         <v>34686</v>
@@ -5432,9 +5368,8 @@
       <c r="D131" t="s">
         <v>34</v>
       </c>
-      <c r="E131" t="str">
-        <f t="shared" ref="E131:E133" si="2">CONCATENATE(B131," ",C131," ",D131,)</f>
-        <v>Rahul Rakesh Sharma</v>
+      <c r="E131">
+        <v>104</v>
       </c>
       <c r="F131" s="1">
         <v>35175</v>
@@ -5465,9 +5400,8 @@
       <c r="D132" t="s">
         <v>114</v>
       </c>
-      <c r="E132" t="str">
-        <f t="shared" si="2"/>
-        <v>Raj Mohan Saxena</v>
+      <c r="E132">
+        <v>105</v>
       </c>
       <c r="F132" s="1">
         <v>35044</v>
@@ -5498,9 +5432,8 @@
       <c r="D133" t="s">
         <v>237</v>
       </c>
-      <c r="E133" t="str">
-        <f t="shared" si="2"/>
-        <v>Komal Sameer Shelatkar</v>
+      <c r="E133">
+        <v>106</v>
       </c>
       <c r="F133" s="1">
         <v>34325</v>

--- a/Results Genetaor/Batch 2017-19/Sem 1/Sample Student Database.xlsx
+++ b/Results Genetaor/Batch 2017-19/Sem 1/Sample Student Database.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Git\ACMaS\Results Genetaor\Batch 2017-19\Sem 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\AutoMBA\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD2B90D-E229-49CE-90FC-F2C20932FEC8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FE522A-88C5-4E81-A28C-0011041863FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{AFC29160-401D-4461-8898-326E7690AE3C}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="370">
   <si>
     <t>DoB</t>
   </si>
@@ -747,70 +747,397 @@
     <t>Full Name</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Z</t>
+    <t>Vasant Govind Patil</t>
+  </si>
+  <si>
+    <t>Debjyoti Roy Patil</t>
+  </si>
+  <si>
+    <t>Kaustav Saha Patil</t>
+  </si>
+  <si>
+    <t>Debobrata Podder Patil</t>
+  </si>
+  <si>
+    <t>Anurag Mark Topno</t>
+  </si>
+  <si>
+    <t>Tarun Minz Topno</t>
+  </si>
+  <si>
+    <t>Praveen Rao Rokkam</t>
+  </si>
+  <si>
+    <t>Arindam Sharma Rokkam</t>
+  </si>
+  <si>
+    <t>Kaustubh Tripathi Rokkam</t>
+  </si>
+  <si>
+    <t>Nakul Gupta Rokkam</t>
+  </si>
+  <si>
+    <t>Gaurav Kumar Rokkam</t>
+  </si>
+  <si>
+    <t>Abhiram Kasina Rokkam</t>
+  </si>
+  <si>
+    <t>Biplab Sinha Rokkam</t>
+  </si>
+  <si>
+    <t>M Jagan Mohan</t>
+  </si>
+  <si>
+    <t>Asit Parija Mohan</t>
+  </si>
+  <si>
+    <t>Shenoy Naresh Keshav</t>
+  </si>
+  <si>
+    <t>Amit Kumar Suthar</t>
+  </si>
+  <si>
+    <t>Amar Singh Patel</t>
+  </si>
+  <si>
+    <t>Rahul Jaimini Patel</t>
+  </si>
+  <si>
+    <t>Rohit Rajgarhia Patel</t>
+  </si>
+  <si>
+    <t>Akshit Sharma Patel</t>
+  </si>
+  <si>
+    <t>Divya Kumar Kala</t>
+  </si>
+  <si>
+    <t>Sri Harshad Kala</t>
+  </si>
+  <si>
+    <t>Micky Mrinal Minz</t>
+  </si>
+  <si>
+    <t>Nishant Mundu Minz</t>
+  </si>
+  <si>
+    <t>Vinu Rajashekhar Minz</t>
+  </si>
+  <si>
+    <t>Mainack Mondal Minz</t>
+  </si>
+  <si>
+    <t>Debabrata Dey Minz</t>
+  </si>
+  <si>
+    <t>Vivekananda Najumudheen Bhat</t>
+  </si>
+  <si>
+    <t>Praveen Ankit Sonare</t>
+  </si>
+  <si>
+    <t>Ravi Rattan Sonare</t>
+  </si>
+  <si>
+    <t>Anindya Bhowmik Sonare</t>
+  </si>
+  <si>
+    <t>Bishal Lama Sonare</t>
+  </si>
+  <si>
+    <t>Arun Kumar Saragadam</t>
+  </si>
+  <si>
+    <t>Arit Kumar Mondal</t>
+  </si>
+  <si>
+    <t>Akash Rao Mondal</t>
+  </si>
+  <si>
+    <t>Marut Agarwal Mondal</t>
+  </si>
+  <si>
+    <t>Abhishek Pratap Singh</t>
+  </si>
+  <si>
+    <t>Sushant Kumar Singh</t>
+  </si>
+  <si>
+    <t>Arpit Mishra Singh</t>
+  </si>
+  <si>
+    <t>Abhinav Gupta Singh</t>
+  </si>
+  <si>
+    <t>Togarrati Venkata Nagesh</t>
+  </si>
+  <si>
+    <t>Pam Revanth Nagesh</t>
+  </si>
+  <si>
+    <t>Gourav Khaneja Nagesh</t>
+  </si>
+  <si>
+    <t>Mayank Jaiswal Nagesh</t>
+  </si>
+  <si>
+    <t>Amit Shanker Nagesh</t>
+  </si>
+  <si>
+    <t>Abhinav Anand Nagesh</t>
+  </si>
+  <si>
+    <t>Varun K Choudhary</t>
+  </si>
+  <si>
+    <t>Diptesh Chatterjee Choudhary</t>
+  </si>
+  <si>
+    <t>Anuj Kumar Singh</t>
+  </si>
+  <si>
+    <t>Dilpreet Singh Singh</t>
+  </si>
+  <si>
+    <t>Amit Sharma Singh</t>
+  </si>
+  <si>
+    <t>Kammara Yashwanth Kumar</t>
+  </si>
+  <si>
+    <t>Mani Kumar Nallani</t>
+  </si>
+  <si>
+    <t>Rahul Saxena Nallani</t>
+  </si>
+  <si>
+    <t>Sahil Goyal Nallani</t>
+  </si>
+  <si>
+    <t>Dodda Raviteja Nallani</t>
+  </si>
+  <si>
+    <t>Anirudha Patro Nallani</t>
+  </si>
+  <si>
+    <t>Mullapudi Pavan Nithin</t>
+  </si>
+  <si>
+    <t>Sameer Hembrom Nithin</t>
+  </si>
+  <si>
+    <t>Ayan Mazumdar Nithin</t>
+  </si>
+  <si>
+    <t>Kiran Kumar Bollam</t>
+  </si>
+  <si>
+    <t>Biswajyoti Das Bollam</t>
+  </si>
+  <si>
+    <t>Arka Aloke Bhattacharya</t>
+  </si>
+  <si>
+    <t>Abhijeet Kumar Bhattacharya</t>
+  </si>
+  <si>
+    <t>Alok Kumar Yadav</t>
+  </si>
+  <si>
+    <t>Anshul Rai Yadav</t>
+  </si>
+  <si>
+    <t>Mohit Singh Yadav</t>
+  </si>
+  <si>
+    <t>Biswajeet Mistry Yadav</t>
+  </si>
+  <si>
+    <t>Badal Murmu Yadav</t>
+  </si>
+  <si>
+    <t>Chinthala Sathish Chandra</t>
+  </si>
+  <si>
+    <t>Vadde Sanjeev Chandra</t>
+  </si>
+  <si>
+    <t>B Rajender Naik</t>
+  </si>
+  <si>
+    <t>Gaurav Mehta Naik</t>
+  </si>
+  <si>
+    <t>Naveen Kumar Molleti</t>
+  </si>
+  <si>
+    <t>Rahul Kumar Srivastava</t>
+  </si>
+  <si>
+    <t>Saurabh Kumar Goyal</t>
+  </si>
+  <si>
+    <t>Narendra Kumar Tangella</t>
+  </si>
+  <si>
+    <t>Nandam Karthik Kumar</t>
+  </si>
+  <si>
+    <t>Atul Kumar Gupta</t>
+  </si>
+  <si>
+    <t>Harsh Vardhan Agarwal</t>
+  </si>
+  <si>
+    <t>Rayman Preet Agarwal</t>
+  </si>
+  <si>
+    <t>Aniket Nayak Agarwal</t>
+  </si>
+  <si>
+    <t>Siddharth Raghuvansi Agarwal</t>
+  </si>
+  <si>
+    <t>Sayantan Ghosh Agarwal</t>
+  </si>
+  <si>
+    <t>Aurosish Mishra Agarwal</t>
+  </si>
+  <si>
+    <t>Ashish Jhunjhunwala Agarwal</t>
+  </si>
+  <si>
+    <t>Sujan Kundu Agarwal</t>
+  </si>
+  <si>
+    <t>Bivas Mitra Agarwal</t>
+  </si>
+  <si>
+    <t>Sujan Kumar Saha</t>
+  </si>
+  <si>
+    <t>Plaban Kumar Bhowmick</t>
+  </si>
+  <si>
+    <t>Arnab Kumar Sarkar</t>
+  </si>
+  <si>
+    <t>Alimpan Barua Boro</t>
+  </si>
+  <si>
+    <t>Keshav Prawasi Singh</t>
+  </si>
+  <si>
+    <t>Neetesh Gupta Singh</t>
+  </si>
+  <si>
+    <t>Naveen Kumar Singh</t>
+  </si>
+  <si>
+    <t>Sumit Sinha Singh</t>
+  </si>
+  <si>
+    <t>Korlam Gautam Singh</t>
+  </si>
+  <si>
+    <t>Dhoble Sumit Singh</t>
+  </si>
+  <si>
+    <t>Nandish Tella Naidu</t>
+  </si>
+  <si>
+    <t>Gautam Kumar Reddy</t>
+  </si>
+  <si>
+    <t>Ramdutt Kishav Sharma</t>
+  </si>
+  <si>
+    <t>Pratik Kishav Agarwal</t>
+  </si>
+  <si>
+    <t>Rishav Kishav Agarwal</t>
+  </si>
+  <si>
+    <t>Rakesh Prudhvi Kumar</t>
+  </si>
+  <si>
+    <t>Sayak Mitra Kumar</t>
+  </si>
+  <si>
+    <t>Achin Gautam Agarwal</t>
+  </si>
+  <si>
+    <t>Avishek Gautam Banerjee</t>
+  </si>
+  <si>
+    <t>Vighnesh Gautam Avadhani</t>
+  </si>
+  <si>
+    <t>Abhinav Gautam Chandel</t>
+  </si>
+  <si>
+    <t>Arvind Gautam Das</t>
+  </si>
+  <si>
+    <t>Sunita Suman Das</t>
+  </si>
+  <si>
+    <t>Monotosh Suman Das</t>
+  </si>
+  <si>
+    <t>Sanket Suman Agarwal</t>
+  </si>
+  <si>
+    <t>Arun Dobriyal Walia</t>
+  </si>
+  <si>
+    <t>Rishav Kishav Mishra</t>
+  </si>
+  <si>
+    <t>Aruni Kishav Choudhary</t>
+  </si>
+  <si>
+    <t>Gyan Baboo Jain</t>
+  </si>
+  <si>
+    <t>Rohit Romesh Jain</t>
+  </si>
+  <si>
+    <t>Anshul Gupta Jain</t>
+  </si>
+  <si>
+    <t>Yatendra Dalal Jain</t>
+  </si>
+  <si>
+    <t>Ravi Shankar Jain</t>
+  </si>
+  <si>
+    <t>Prav Chheda Singh</t>
+  </si>
+  <si>
+    <t>Anshuman Tripathi Singh</t>
+  </si>
+  <si>
+    <t>Kripasindhu Sarkar Singh</t>
+  </si>
+  <si>
+    <t>Gaurab Basu Singh</t>
+  </si>
+  <si>
+    <t>Ashis Kumar Sharma</t>
+  </si>
+  <si>
+    <t>Aniket Jha Yadav</t>
+  </si>
+  <si>
+    <t>Rahul Rakesh Sharma</t>
+  </si>
+  <si>
+    <t>Raj Mohan Saxena</t>
+  </si>
+  <si>
+    <t>Komal Sameer Shelatkar</t>
   </si>
 </sst>
 </file>
@@ -1273,7 +1600,7 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>240</v>
       </c>
       <c r="F3" s="1">
         <v>34687</v>
@@ -1305,7 +1632,7 @@
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F4" s="1">
         <v>34323</v>
@@ -1337,7 +1664,7 @@
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F5" s="1">
         <v>34689</v>
@@ -1369,7 +1696,7 @@
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F6" s="1">
         <v>34325</v>
@@ -1401,7 +1728,7 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>244</v>
       </c>
       <c r="F7" s="1">
         <v>34325</v>
@@ -1433,7 +1760,7 @@
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F8" s="1">
         <v>34618</v>
@@ -1465,7 +1792,7 @@
         <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F9" s="1">
         <v>34671</v>
@@ -1497,7 +1824,7 @@
         <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F10" s="1">
         <v>34750</v>
@@ -1529,7 +1856,7 @@
         <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F11" s="1">
         <v>34598</v>
@@ -1561,7 +1888,7 @@
         <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>249</v>
       </c>
       <c r="F12" s="1">
         <v>34864</v>
@@ -1593,7 +1920,7 @@
         <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F13" s="1">
         <v>35051</v>
@@ -1625,7 +1952,7 @@
         <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="F14" s="1">
         <v>34954</v>
@@ -1657,7 +1984,7 @@
         <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F15" s="1">
         <v>35175</v>
@@ -1689,7 +2016,7 @@
         <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F16" s="1">
         <v>35044</v>
@@ -1721,7 +2048,7 @@
         <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F17" s="1">
         <v>35157</v>
@@ -1753,7 +2080,7 @@
         <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F18" s="1">
         <v>34686</v>
@@ -1785,7 +2112,7 @@
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F19" s="1">
         <v>34687</v>
@@ -1817,7 +2144,7 @@
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F20" s="1">
         <v>34323</v>
@@ -1849,7 +2176,7 @@
         <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F21" s="1">
         <v>34689</v>
@@ -1881,7 +2208,7 @@
         <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F22" s="1">
         <v>34325</v>
@@ -1913,7 +2240,7 @@
         <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F23" s="1">
         <v>34325</v>
@@ -1945,7 +2272,7 @@
         <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F24" s="1">
         <v>34618</v>
@@ -1977,7 +2304,7 @@
         <v>29</v>
       </c>
       <c r="E25" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F25" s="1">
         <v>34671</v>
@@ -2009,7 +2336,7 @@
         <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F26" s="1">
         <v>34750</v>
@@ -2041,7 +2368,7 @@
         <v>29</v>
       </c>
       <c r="E27" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F27" s="1">
         <v>34598</v>
@@ -2072,8 +2399,8 @@
       <c r="D28" t="s">
         <v>29</v>
       </c>
-      <c r="E28">
-        <v>1</v>
+      <c r="E28" t="s">
+        <v>265</v>
       </c>
       <c r="F28" s="1">
         <v>34864</v>
@@ -2104,8 +2431,8 @@
       <c r="D29" t="s">
         <v>29</v>
       </c>
-      <c r="E29">
-        <v>2</v>
+      <c r="E29" t="s">
+        <v>266</v>
       </c>
       <c r="F29" s="1">
         <v>35051</v>
@@ -2136,8 +2463,8 @@
       <c r="D30" t="s">
         <v>74</v>
       </c>
-      <c r="E30">
-        <v>3</v>
+      <c r="E30" t="s">
+        <v>267</v>
       </c>
       <c r="F30" s="1">
         <v>34954</v>
@@ -2168,8 +2495,8 @@
       <c r="D31" t="s">
         <v>77</v>
       </c>
-      <c r="E31">
-        <v>4</v>
+      <c r="E31" t="s">
+        <v>268</v>
       </c>
       <c r="F31" s="1">
         <v>35175</v>
@@ -2200,8 +2527,8 @@
       <c r="D32" t="s">
         <v>77</v>
       </c>
-      <c r="E32">
-        <v>5</v>
+      <c r="E32" t="s">
+        <v>269</v>
       </c>
       <c r="F32" s="1">
         <v>35044</v>
@@ -2232,8 +2559,8 @@
       <c r="D33" t="s">
         <v>77</v>
       </c>
-      <c r="E33">
-        <v>6</v>
+      <c r="E33" t="s">
+        <v>270</v>
       </c>
       <c r="F33" s="1">
         <v>35157</v>
@@ -2264,8 +2591,8 @@
       <c r="D34" t="s">
         <v>77</v>
       </c>
-      <c r="E34">
-        <v>7</v>
+      <c r="E34" t="s">
+        <v>271</v>
       </c>
       <c r="F34" s="1">
         <v>34686</v>
@@ -2296,8 +2623,8 @@
       <c r="D35" t="s">
         <v>84</v>
       </c>
-      <c r="E35">
-        <v>8</v>
+      <c r="E35" t="s">
+        <v>272</v>
       </c>
       <c r="F35" s="1">
         <v>34687</v>
@@ -2328,8 +2655,8 @@
       <c r="D36" t="s">
         <v>70</v>
       </c>
-      <c r="E36">
-        <v>9</v>
+      <c r="E36" t="s">
+        <v>273</v>
       </c>
       <c r="F36" s="1">
         <v>34323</v>
@@ -2360,8 +2687,8 @@
       <c r="D37" t="s">
         <v>70</v>
       </c>
-      <c r="E37">
-        <v>10</v>
+      <c r="E37" t="s">
+        <v>274</v>
       </c>
       <c r="F37" s="1">
         <v>34689</v>
@@ -2392,8 +2719,8 @@
       <c r="D38" t="s">
         <v>70</v>
       </c>
-      <c r="E38">
-        <v>11</v>
+      <c r="E38" t="s">
+        <v>275</v>
       </c>
       <c r="F38" s="1">
         <v>34325</v>
@@ -2424,8 +2751,8 @@
       <c r="D39" t="s">
         <v>55</v>
       </c>
-      <c r="E39">
-        <v>12</v>
+      <c r="E39" t="s">
+        <v>276</v>
       </c>
       <c r="F39" s="1">
         <v>34325</v>
@@ -2456,8 +2783,8 @@
       <c r="D40" t="s">
         <v>55</v>
       </c>
-      <c r="E40">
-        <v>13</v>
+      <c r="E40" t="s">
+        <v>277</v>
       </c>
       <c r="F40" s="1">
         <v>34618</v>
@@ -2488,8 +2815,8 @@
       <c r="D41" t="s">
         <v>55</v>
       </c>
-      <c r="E41">
-        <v>14</v>
+      <c r="E41" t="s">
+        <v>278</v>
       </c>
       <c r="F41" s="1">
         <v>34671</v>
@@ -2520,8 +2847,8 @@
       <c r="D42" t="s">
         <v>55</v>
       </c>
-      <c r="E42">
-        <v>15</v>
+      <c r="E42" t="s">
+        <v>279</v>
       </c>
       <c r="F42" s="1">
         <v>34750</v>
@@ -2552,8 +2879,8 @@
       <c r="D43" t="s">
         <v>96</v>
       </c>
-      <c r="E43">
-        <v>16</v>
+      <c r="E43" t="s">
+        <v>280</v>
       </c>
       <c r="F43" s="1">
         <v>34598</v>
@@ -2584,8 +2911,8 @@
       <c r="D44" t="s">
         <v>96</v>
       </c>
-      <c r="E44">
-        <v>17</v>
+      <c r="E44" t="s">
+        <v>281</v>
       </c>
       <c r="F44" s="1">
         <v>34864</v>
@@ -2616,8 +2943,8 @@
       <c r="D45" t="s">
         <v>96</v>
       </c>
-      <c r="E45">
-        <v>18</v>
+      <c r="E45" t="s">
+        <v>282</v>
       </c>
       <c r="F45" s="1">
         <v>35051</v>
@@ -2648,8 +2975,8 @@
       <c r="D46" t="s">
         <v>96</v>
       </c>
-      <c r="E46">
-        <v>19</v>
+      <c r="E46" t="s">
+        <v>283</v>
       </c>
       <c r="F46" s="1">
         <v>34954</v>
@@ -2680,8 +3007,8 @@
       <c r="D47" t="s">
         <v>96</v>
       </c>
-      <c r="E47">
-        <v>20</v>
+      <c r="E47" t="s">
+        <v>284</v>
       </c>
       <c r="F47" s="1">
         <v>35175</v>
@@ -2712,8 +3039,8 @@
       <c r="D48" t="s">
         <v>96</v>
       </c>
-      <c r="E48">
-        <v>21</v>
+      <c r="E48" t="s">
+        <v>285</v>
       </c>
       <c r="F48" s="1">
         <v>35044</v>
@@ -2744,8 +3071,8 @@
       <c r="D49" t="s">
         <v>105</v>
       </c>
-      <c r="E49">
-        <v>22</v>
+      <c r="E49" t="s">
+        <v>286</v>
       </c>
       <c r="F49" s="1">
         <v>35157</v>
@@ -2776,8 +3103,8 @@
       <c r="D50" t="s">
         <v>105</v>
       </c>
-      <c r="E50">
-        <v>23</v>
+      <c r="E50" t="s">
+        <v>287</v>
       </c>
       <c r="F50" s="1">
         <v>34686</v>
@@ -2808,8 +3135,8 @@
       <c r="D51" t="s">
         <v>55</v>
       </c>
-      <c r="E51">
-        <v>24</v>
+      <c r="E51" t="s">
+        <v>288</v>
       </c>
       <c r="F51" s="1">
         <v>34687</v>
@@ -2840,8 +3167,8 @@
       <c r="D52" t="s">
         <v>55</v>
       </c>
-      <c r="E52">
-        <v>25</v>
+      <c r="E52" t="s">
+        <v>289</v>
       </c>
       <c r="F52" s="1">
         <v>34323</v>
@@ -2872,8 +3199,8 @@
       <c r="D53" t="s">
         <v>55</v>
       </c>
-      <c r="E53">
-        <v>26</v>
+      <c r="E53" t="s">
+        <v>290</v>
       </c>
       <c r="F53" s="1">
         <v>34689</v>
@@ -2904,8 +3231,8 @@
       <c r="D54" t="s">
         <v>40</v>
       </c>
-      <c r="E54">
-        <v>27</v>
+      <c r="E54" t="s">
+        <v>291</v>
       </c>
       <c r="F54" s="1">
         <v>34325</v>
@@ -2936,8 +3263,8 @@
       <c r="D55" t="s">
         <v>113</v>
       </c>
-      <c r="E55">
-        <v>28</v>
+      <c r="E55" t="s">
+        <v>292</v>
       </c>
       <c r="F55" s="1">
         <v>34325</v>
@@ -2968,8 +3295,8 @@
       <c r="D56" t="s">
         <v>113</v>
       </c>
-      <c r="E56">
-        <v>29</v>
+      <c r="E56" t="s">
+        <v>293</v>
       </c>
       <c r="F56" s="1">
         <v>34618</v>
@@ -3000,8 +3327,8 @@
       <c r="D57" t="s">
         <v>113</v>
       </c>
-      <c r="E57">
-        <v>30</v>
+      <c r="E57" t="s">
+        <v>294</v>
       </c>
       <c r="F57" s="1">
         <v>34671</v>
@@ -3032,8 +3359,8 @@
       <c r="D58" t="s">
         <v>113</v>
       </c>
-      <c r="E58">
-        <v>31</v>
+      <c r="E58" t="s">
+        <v>295</v>
       </c>
       <c r="F58" s="1">
         <v>34750</v>
@@ -3064,8 +3391,8 @@
       <c r="D59" t="s">
         <v>113</v>
       </c>
-      <c r="E59">
-        <v>32</v>
+      <c r="E59" t="s">
+        <v>296</v>
       </c>
       <c r="F59" s="1">
         <v>34598</v>
@@ -3096,8 +3423,8 @@
       <c r="D60" t="s">
         <v>124</v>
       </c>
-      <c r="E60">
-        <v>33</v>
+      <c r="E60" t="s">
+        <v>297</v>
       </c>
       <c r="F60" s="1">
         <v>34864</v>
@@ -3128,8 +3455,8 @@
       <c r="D61" t="s">
         <v>124</v>
       </c>
-      <c r="E61">
-        <v>34</v>
+      <c r="E61" t="s">
+        <v>298</v>
       </c>
       <c r="F61" s="1">
         <v>35051</v>
@@ -3160,8 +3487,8 @@
       <c r="D62" t="s">
         <v>124</v>
       </c>
-      <c r="E62">
-        <v>35</v>
+      <c r="E62" t="s">
+        <v>299</v>
       </c>
       <c r="F62" s="1">
         <v>34954</v>
@@ -3192,8 +3519,8 @@
       <c r="D63" t="s">
         <v>130</v>
       </c>
-      <c r="E63">
-        <v>36</v>
+      <c r="E63" t="s">
+        <v>300</v>
       </c>
       <c r="F63" s="1">
         <v>35175</v>
@@ -3224,8 +3551,8 @@
       <c r="D64" t="s">
         <v>130</v>
       </c>
-      <c r="E64">
-        <v>37</v>
+      <c r="E64" t="s">
+        <v>301</v>
       </c>
       <c r="F64" s="1">
         <v>35044</v>
@@ -3256,8 +3583,8 @@
       <c r="D65" t="s">
         <v>135</v>
       </c>
-      <c r="E65">
-        <v>38</v>
+      <c r="E65" t="s">
+        <v>302</v>
       </c>
       <c r="F65" s="1">
         <v>35157</v>
@@ -3288,8 +3615,8 @@
       <c r="D66" t="s">
         <v>135</v>
       </c>
-      <c r="E66">
-        <v>39</v>
+      <c r="E66" t="s">
+        <v>303</v>
       </c>
       <c r="F66" s="1">
         <v>34686</v>
@@ -3320,8 +3647,8 @@
       <c r="D67" t="s">
         <v>138</v>
       </c>
-      <c r="E67">
-        <v>40</v>
+      <c r="E67" t="s">
+        <v>304</v>
       </c>
       <c r="F67" s="1">
         <v>34687</v>
@@ -3352,8 +3679,8 @@
       <c r="D68" t="s">
         <v>138</v>
       </c>
-      <c r="E68">
-        <v>41</v>
+      <c r="E68" t="s">
+        <v>305</v>
       </c>
       <c r="F68" s="1">
         <v>34323</v>
@@ -3384,8 +3711,8 @@
       <c r="D69" t="s">
         <v>138</v>
       </c>
-      <c r="E69">
-        <v>42</v>
+      <c r="E69" t="s">
+        <v>306</v>
       </c>
       <c r="F69" s="1">
         <v>34689</v>
@@ -3416,8 +3743,8 @@
       <c r="D70" t="s">
         <v>138</v>
       </c>
-      <c r="E70">
-        <v>43</v>
+      <c r="E70" t="s">
+        <v>307</v>
       </c>
       <c r="F70" s="1">
         <v>34325</v>
@@ -3448,8 +3775,8 @@
       <c r="D71" t="s">
         <v>138</v>
       </c>
-      <c r="E71">
-        <v>44</v>
+      <c r="E71" t="s">
+        <v>308</v>
       </c>
       <c r="F71" s="1">
         <v>34325</v>
@@ -3480,8 +3807,8 @@
       <c r="D72" t="s">
         <v>147</v>
       </c>
-      <c r="E72">
-        <v>45</v>
+      <c r="E72" t="s">
+        <v>309</v>
       </c>
       <c r="F72" s="1">
         <v>34618</v>
@@ -3512,8 +3839,8 @@
       <c r="D73" t="s">
         <v>147</v>
       </c>
-      <c r="E73">
-        <v>46</v>
+      <c r="E73" t="s">
+        <v>310</v>
       </c>
       <c r="F73" s="1">
         <v>34671</v>
@@ -3544,8 +3871,8 @@
       <c r="D74" t="s">
         <v>151</v>
       </c>
-      <c r="E74">
-        <v>47</v>
+      <c r="E74" t="s">
+        <v>311</v>
       </c>
       <c r="F74" s="1">
         <v>34750</v>
@@ -3576,8 +3903,8 @@
       <c r="D75" t="s">
         <v>151</v>
       </c>
-      <c r="E75">
-        <v>48</v>
+      <c r="E75" t="s">
+        <v>312</v>
       </c>
       <c r="F75" s="1">
         <v>34598</v>
@@ -3608,8 +3935,8 @@
       <c r="D76" t="s">
         <v>154</v>
       </c>
-      <c r="E76">
-        <v>49</v>
+      <c r="E76" t="s">
+        <v>313</v>
       </c>
       <c r="F76" s="1">
         <v>34864</v>
@@ -3640,8 +3967,8 @@
       <c r="D77" t="s">
         <v>156</v>
       </c>
-      <c r="E77">
-        <v>50</v>
+      <c r="E77" t="s">
+        <v>314</v>
       </c>
       <c r="F77" s="1">
         <v>35051</v>
@@ -3672,8 +3999,8 @@
       <c r="D78" t="s">
         <v>117</v>
       </c>
-      <c r="E78">
-        <v>51</v>
+      <c r="E78" t="s">
+        <v>315</v>
       </c>
       <c r="F78" s="1">
         <v>34954</v>
@@ -3704,8 +4031,8 @@
       <c r="D79" t="s">
         <v>159</v>
       </c>
-      <c r="E79">
-        <v>52</v>
+      <c r="E79" t="s">
+        <v>316</v>
       </c>
       <c r="F79" s="1">
         <v>35175</v>
@@ -3736,8 +4063,8 @@
       <c r="D80" t="s">
         <v>40</v>
       </c>
-      <c r="E80">
-        <v>53</v>
+      <c r="E80" t="s">
+        <v>317</v>
       </c>
       <c r="F80" s="1">
         <v>35044</v>
@@ -3768,8 +4095,8 @@
       <c r="D81" t="s">
         <v>38</v>
       </c>
-      <c r="E81">
-        <v>54</v>
+      <c r="E81" t="s">
+        <v>318</v>
       </c>
       <c r="F81" s="1">
         <v>35157</v>
@@ -3800,8 +4127,8 @@
       <c r="D82" t="s">
         <v>88</v>
       </c>
-      <c r="E82">
-        <v>55</v>
+      <c r="E82" t="s">
+        <v>319</v>
       </c>
       <c r="F82" s="1">
         <v>34686</v>
@@ -3832,8 +4159,8 @@
       <c r="D83" t="s">
         <v>88</v>
       </c>
-      <c r="E83">
-        <v>56</v>
+      <c r="E83" t="s">
+        <v>320</v>
       </c>
       <c r="F83" s="1">
         <v>34687</v>
@@ -3864,8 +4191,8 @@
       <c r="D84" t="s">
         <v>88</v>
       </c>
-      <c r="E84">
-        <v>57</v>
+      <c r="E84" t="s">
+        <v>321</v>
       </c>
       <c r="F84" s="1">
         <v>34323</v>
@@ -3896,8 +4223,8 @@
       <c r="D85" t="s">
         <v>88</v>
       </c>
-      <c r="E85">
-        <v>58</v>
+      <c r="E85" t="s">
+        <v>322</v>
       </c>
       <c r="F85" s="1">
         <v>34689</v>
@@ -3928,8 +4255,8 @@
       <c r="D86" t="s">
         <v>88</v>
       </c>
-      <c r="E86">
-        <v>59</v>
+      <c r="E86" t="s">
+        <v>323</v>
       </c>
       <c r="F86" s="1">
         <v>34325</v>
@@ -3960,8 +4287,8 @@
       <c r="D87" t="s">
         <v>88</v>
       </c>
-      <c r="E87">
-        <v>60</v>
+      <c r="E87" t="s">
+        <v>324</v>
       </c>
       <c r="F87" s="1">
         <v>34325</v>
@@ -3992,8 +4319,8 @@
       <c r="D88" t="s">
         <v>88</v>
       </c>
-      <c r="E88">
-        <v>61</v>
+      <c r="E88" t="s">
+        <v>325</v>
       </c>
       <c r="F88" s="1">
         <v>34618</v>
@@ -4024,8 +4351,8 @@
       <c r="D89" t="s">
         <v>88</v>
       </c>
-      <c r="E89">
-        <v>62</v>
+      <c r="E89" t="s">
+        <v>326</v>
       </c>
       <c r="F89" s="1">
         <v>34671</v>
@@ -4056,8 +4383,8 @@
       <c r="D90" t="s">
         <v>88</v>
       </c>
-      <c r="E90">
-        <v>63</v>
+      <c r="E90" t="s">
+        <v>327</v>
       </c>
       <c r="F90" s="1">
         <v>34750</v>
@@ -4088,8 +4415,8 @@
       <c r="D91" t="s">
         <v>22</v>
       </c>
-      <c r="E91">
-        <v>64</v>
+      <c r="E91" t="s">
+        <v>328</v>
       </c>
       <c r="F91" s="1">
         <v>34598</v>
@@ -4120,8 +4447,8 @@
       <c r="D92" t="s">
         <v>181</v>
       </c>
-      <c r="E92">
-        <v>65</v>
+      <c r="E92" t="s">
+        <v>329</v>
       </c>
       <c r="F92" s="1">
         <v>34864</v>
@@ -4152,8 +4479,8 @@
       <c r="D93" t="s">
         <v>183</v>
       </c>
-      <c r="E93">
-        <v>66</v>
+      <c r="E93" t="s">
+        <v>330</v>
       </c>
       <c r="F93" s="1">
         <v>35051</v>
@@ -4184,8 +4511,8 @@
       <c r="D94" t="s">
         <v>185</v>
       </c>
-      <c r="E94">
-        <v>67</v>
+      <c r="E94" t="s">
+        <v>331</v>
       </c>
       <c r="F94" s="1">
         <v>34954</v>
@@ -4216,8 +4543,8 @@
       <c r="D95" t="s">
         <v>55</v>
       </c>
-      <c r="E95">
-        <v>68</v>
+      <c r="E95" t="s">
+        <v>332</v>
       </c>
       <c r="F95" s="1">
         <v>35175</v>
@@ -4248,8 +4575,8 @@
       <c r="D96" t="s">
         <v>55</v>
       </c>
-      <c r="E96">
-        <v>69</v>
+      <c r="E96" t="s">
+        <v>333</v>
       </c>
       <c r="F96" s="1">
         <v>35044</v>
@@ -4280,8 +4607,8 @@
       <c r="D97" t="s">
         <v>55</v>
       </c>
-      <c r="E97">
-        <v>70</v>
+      <c r="E97" t="s">
+        <v>334</v>
       </c>
       <c r="F97" s="1">
         <v>35157</v>
@@ -4312,8 +4639,8 @@
       <c r="D98" t="s">
         <v>55</v>
       </c>
-      <c r="E98">
-        <v>71</v>
+      <c r="E98" t="s">
+        <v>335</v>
       </c>
       <c r="F98" s="1">
         <v>34686</v>
@@ -4344,8 +4671,8 @@
       <c r="D99" t="s">
         <v>55</v>
       </c>
-      <c r="E99">
-        <v>72</v>
+      <c r="E99" t="s">
+        <v>336</v>
       </c>
       <c r="F99" s="1">
         <v>34687</v>
@@ -4376,8 +4703,8 @@
       <c r="D100" t="s">
         <v>55</v>
       </c>
-      <c r="E100">
-        <v>73</v>
+      <c r="E100" t="s">
+        <v>337</v>
       </c>
       <c r="F100" s="1">
         <v>34323</v>
@@ -4408,8 +4735,8 @@
       <c r="D101" t="s">
         <v>194</v>
       </c>
-      <c r="E101">
-        <v>74</v>
+      <c r="E101" t="s">
+        <v>338</v>
       </c>
       <c r="F101" s="1">
         <v>34689</v>
@@ -4440,8 +4767,8 @@
       <c r="D102" t="s">
         <v>197</v>
       </c>
-      <c r="E102">
-        <v>75</v>
+      <c r="E102" t="s">
+        <v>339</v>
       </c>
       <c r="F102" s="1">
         <v>34325</v>
@@ -4472,8 +4799,8 @@
       <c r="D103" t="s">
         <v>34</v>
       </c>
-      <c r="E103">
-        <v>76</v>
+      <c r="E103" t="s">
+        <v>340</v>
       </c>
       <c r="F103" s="1">
         <v>34325</v>
@@ -4504,8 +4831,8 @@
       <c r="D104" t="s">
         <v>88</v>
       </c>
-      <c r="E104">
-        <v>77</v>
+      <c r="E104" t="s">
+        <v>341</v>
       </c>
       <c r="F104" s="1">
         <v>34618</v>
@@ -4536,8 +4863,8 @@
       <c r="D105" t="s">
         <v>88</v>
       </c>
-      <c r="E105">
-        <v>78</v>
+      <c r="E105" t="s">
+        <v>342</v>
       </c>
       <c r="F105" s="1">
         <v>34671</v>
@@ -4568,8 +4895,8 @@
       <c r="D106" t="s">
         <v>40</v>
       </c>
-      <c r="E106">
-        <v>79</v>
+      <c r="E106" t="s">
+        <v>343</v>
       </c>
       <c r="F106" s="1">
         <v>34750</v>
@@ -4600,8 +4927,8 @@
       <c r="D107" t="s">
         <v>40</v>
       </c>
-      <c r="E107">
-        <v>80</v>
+      <c r="E107" t="s">
+        <v>344</v>
       </c>
       <c r="F107" s="1">
         <v>34598</v>
@@ -4632,8 +4959,8 @@
       <c r="D108" t="s">
         <v>88</v>
       </c>
-      <c r="E108">
-        <v>81</v>
+      <c r="E108" t="s">
+        <v>345</v>
       </c>
       <c r="F108" s="1">
         <v>34864</v>
@@ -4664,8 +4991,8 @@
       <c r="D109" t="s">
         <v>208</v>
       </c>
-      <c r="E109">
-        <v>82</v>
+      <c r="E109" t="s">
+        <v>346</v>
       </c>
       <c r="F109" s="1">
         <v>35051</v>
@@ -4696,8 +5023,8 @@
       <c r="D110" t="s">
         <v>210</v>
       </c>
-      <c r="E110">
-        <v>83</v>
+      <c r="E110" t="s">
+        <v>347</v>
       </c>
       <c r="F110" s="1">
         <v>34954</v>
@@ -4728,8 +5055,8 @@
       <c r="D111" t="s">
         <v>211</v>
       </c>
-      <c r="E111">
-        <v>84</v>
+      <c r="E111" t="s">
+        <v>348</v>
       </c>
       <c r="F111" s="1">
         <v>35175</v>
@@ -4760,8 +5087,8 @@
       <c r="D112" t="s">
         <v>132</v>
       </c>
-      <c r="E112">
-        <v>85</v>
+      <c r="E112" t="s">
+        <v>349</v>
       </c>
       <c r="F112" s="1">
         <v>35044</v>
@@ -4792,8 +5119,8 @@
       <c r="D113" t="s">
         <v>132</v>
       </c>
-      <c r="E113">
-        <v>86</v>
+      <c r="E113" t="s">
+        <v>350</v>
       </c>
       <c r="F113" s="1">
         <v>35157</v>
@@ -4824,8 +5151,8 @@
       <c r="D114" t="s">
         <v>132</v>
       </c>
-      <c r="E114">
-        <v>87</v>
+      <c r="E114" t="s">
+        <v>351</v>
       </c>
       <c r="F114" s="1">
         <v>34686</v>
@@ -4856,8 +5183,8 @@
       <c r="D115" t="s">
         <v>88</v>
       </c>
-      <c r="E115">
-        <v>88</v>
+      <c r="E115" t="s">
+        <v>352</v>
       </c>
       <c r="F115" s="1">
         <v>34687</v>
@@ -4888,8 +5215,8 @@
       <c r="D116" t="s">
         <v>216</v>
       </c>
-      <c r="E116">
-        <v>89</v>
+      <c r="E116" t="s">
+        <v>353</v>
       </c>
       <c r="F116" s="1">
         <v>34323</v>
@@ -4920,8 +5247,8 @@
       <c r="D117" t="s">
         <v>92</v>
       </c>
-      <c r="E117">
-        <v>90</v>
+      <c r="E117" t="s">
+        <v>354</v>
       </c>
       <c r="F117" s="1">
         <v>34689</v>
@@ -4952,8 +5279,8 @@
       <c r="D118" t="s">
         <v>105</v>
       </c>
-      <c r="E118">
-        <v>91</v>
+      <c r="E118" t="s">
+        <v>355</v>
       </c>
       <c r="F118" s="1">
         <v>34325</v>
@@ -4984,8 +5311,8 @@
       <c r="D119" t="s">
         <v>200</v>
       </c>
-      <c r="E119">
-        <v>92</v>
+      <c r="E119" t="s">
+        <v>356</v>
       </c>
       <c r="F119" s="1">
         <v>34325</v>
@@ -5016,8 +5343,8 @@
       <c r="D120" t="s">
         <v>200</v>
       </c>
-      <c r="E120">
-        <v>93</v>
+      <c r="E120" t="s">
+        <v>357</v>
       </c>
       <c r="F120" s="1">
         <v>34618</v>
@@ -5048,8 +5375,8 @@
       <c r="D121" t="s">
         <v>200</v>
       </c>
-      <c r="E121">
-        <v>94</v>
+      <c r="E121" t="s">
+        <v>358</v>
       </c>
       <c r="F121" s="1">
         <v>34671</v>
@@ -5080,8 +5407,8 @@
       <c r="D122" t="s">
         <v>200</v>
       </c>
-      <c r="E122">
-        <v>95</v>
+      <c r="E122" t="s">
+        <v>359</v>
       </c>
       <c r="F122" s="1">
         <v>34750</v>
@@ -5112,8 +5439,8 @@
       <c r="D123" t="s">
         <v>200</v>
       </c>
-      <c r="E123">
-        <v>96</v>
+      <c r="E123" t="s">
+        <v>360</v>
       </c>
       <c r="F123" s="1">
         <v>34598</v>
@@ -5144,8 +5471,8 @@
       <c r="D124" t="s">
         <v>55</v>
       </c>
-      <c r="E124">
-        <v>97</v>
+      <c r="E124" t="s">
+        <v>361</v>
       </c>
       <c r="F124" s="1">
         <v>34864</v>
@@ -5176,8 +5503,8 @@
       <c r="D125" t="s">
         <v>55</v>
       </c>
-      <c r="E125">
-        <v>98</v>
+      <c r="E125" t="s">
+        <v>362</v>
       </c>
       <c r="F125" s="1">
         <v>35051</v>
@@ -5208,8 +5535,8 @@
       <c r="D126" t="s">
         <v>55</v>
       </c>
-      <c r="E126">
-        <v>99</v>
+      <c r="E126" t="s">
+        <v>363</v>
       </c>
       <c r="F126" s="1">
         <v>34954</v>
@@ -5240,8 +5567,8 @@
       <c r="D127" t="s">
         <v>55</v>
       </c>
-      <c r="E127">
-        <v>100</v>
+      <c r="E127" t="s">
+        <v>364</v>
       </c>
       <c r="F127" s="1">
         <v>35175</v>
@@ -5272,8 +5599,8 @@
       <c r="D128" t="s">
         <v>55</v>
       </c>
-      <c r="E128">
-        <v>101</v>
+      <c r="E128" t="s">
+        <v>334</v>
       </c>
       <c r="F128" s="1">
         <v>35044</v>
@@ -5304,8 +5631,8 @@
       <c r="D129" t="s">
         <v>34</v>
       </c>
-      <c r="E129">
-        <v>102</v>
+      <c r="E129" t="s">
+        <v>365</v>
       </c>
       <c r="F129" s="1">
         <v>35157</v>
@@ -5336,8 +5663,8 @@
       <c r="D130" t="s">
         <v>138</v>
       </c>
-      <c r="E130">
-        <v>103</v>
+      <c r="E130" t="s">
+        <v>366</v>
       </c>
       <c r="F130" s="1">
         <v>34686</v>
@@ -5368,8 +5695,8 @@
       <c r="D131" t="s">
         <v>34</v>
       </c>
-      <c r="E131">
-        <v>104</v>
+      <c r="E131" t="s">
+        <v>367</v>
       </c>
       <c r="F131" s="1">
         <v>35175</v>
@@ -5400,8 +5727,8 @@
       <c r="D132" t="s">
         <v>114</v>
       </c>
-      <c r="E132">
-        <v>105</v>
+      <c r="E132" t="s">
+        <v>368</v>
       </c>
       <c r="F132" s="1">
         <v>35044</v>
@@ -5432,8 +5759,8 @@
       <c r="D133" t="s">
         <v>237</v>
       </c>
-      <c r="E133">
-        <v>106</v>
+      <c r="E133" t="s">
+        <v>369</v>
       </c>
       <c r="F133" s="1">
         <v>34325</v>
